--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E5AF6-08CC-47A2-843D-731553CE27A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A436C-EDF7-4077-A166-74734591A659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5873" xr2:uid="{D422B5F2-BC56-4908-8A15-AEBACB4A8502}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>Train</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Avg F0 + Avg MFCC (12 coeff)</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>Avg F0 + Avg MFCC (20 coeff)</t>
   </si>
   <si>
@@ -64,6 +61,27 @@
   </si>
   <si>
     <t>Avg F0 + Avg MFCC (12 coeff) + Avg Delta MFCC + Avg Delta Delta MFCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg MFCC (12 coeff) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg MFCC (20 coeff) </t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + Avg Delta Delta</t>
+  </si>
+  <si>
+    <t>Baseline Avg F0</t>
+  </si>
+  <si>
+    <t>Avg MFCC (20 coeff) + Avg Delta</t>
+  </si>
+  <si>
+    <t>Avg MFCC (20 coeff) + Avg Delta + Avg Delta Delta</t>
   </si>
 </sst>
 </file>
@@ -418,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17FEF67-01CB-4BD3-814E-AE2036E8F85F}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -429,13 +447,14 @@
     <col min="2" max="2" width="8.9296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -447,7 +466,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -586,19 +605,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -735,10 +754,324 @@
         <v>46.341500000000003</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>49.629600000000003</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>30.894300000000001</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>49.468400000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>25.906400000000001</v>
+      </c>
+      <c r="D17">
+        <v>46.716700000000003</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>37.0732</v>
+      </c>
+      <c r="H17">
+        <v>21.812899999999999</v>
+      </c>
+      <c r="I17">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>32.601599999999998</v>
+      </c>
+      <c r="M17">
+        <v>22.2807</v>
+      </c>
+      <c r="N17">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>48.6554</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>49.843699999999998</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="M22">
+        <v>25.1462</v>
+      </c>
+      <c r="N22">
+        <v>49.629600000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C23">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="D23">
+        <v>46.779200000000003</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="H23">
+        <v>20.8187</v>
+      </c>
+      <c r="I23">
+        <v>47.407400000000003</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="L20:N20"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="L14:N14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="G2:I2"/>

--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A436C-EDF7-4077-A166-74734591A659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ACAFB2-1867-4C9B-899B-7D75A417799D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5873" xr2:uid="{D422B5F2-BC56-4908-8A15-AEBACB4A8502}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="23">
   <si>
     <t>Train</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Avg MFCC (20 coeff) + Avg Delta + Avg Delta Delta</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + 7500 knn</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + 50 knn</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + 1000 knn</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + 100 knn</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17FEF67-01CB-4BD3-814E-AE2036E8F85F}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1056,14 +1068,230 @@
         <v>47.407400000000003</v>
       </c>
     </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>33.577199999999998</v>
+      </c>
+      <c r="C28">
+        <v>24.093599999999999</v>
+      </c>
+      <c r="D28">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>11.4634</v>
+      </c>
+      <c r="H28">
+        <v>35</v>
+      </c>
+      <c r="I28">
+        <v>35.647300000000001</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>31.4634</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>41.481499999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>34.146299999999997</v>
+      </c>
+      <c r="C29">
+        <v>24.2105</v>
+      </c>
+      <c r="D29">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>33.008099999999999</v>
+      </c>
+      <c r="H29">
+        <v>12.1637</v>
+      </c>
+      <c r="I29">
+        <v>45.028100000000002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>32.195099999999996</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>45.185200000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>27.642299999999999</v>
+      </c>
+      <c r="C34">
+        <v>28.333300000000001</v>
+      </c>
+      <c r="D34">
+        <v>41.481499999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>31.1111</v>
+      </c>
+      <c r="C35">
+        <v>21.403500000000001</v>
+      </c>
+      <c r="D35">
+        <v>45.185200000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="L20:N20"/>
+  <mergeCells count="32">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="A13:D13"/>
@@ -1072,16 +1300,16 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="L20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ACAFB2-1867-4C9B-899B-7D75A417799D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76072217-B222-47B5-8FD5-3352C7BDAA78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5873" xr2:uid="{D422B5F2-BC56-4908-8A15-AEBACB4A8502}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
   <si>
     <t>Train</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Avg MFCC (12 coeff) + Avg Delta + 100 knn</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + 500 knn</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1226,6 +1229,12 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
@@ -1233,8 +1242,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1247,43 +1261,83 @@
       <c r="D33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34">
-        <v>27.642299999999999</v>
+        <v>17.398399999999999</v>
       </c>
       <c r="C34">
         <v>28.333300000000001</v>
       </c>
       <c r="D34">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>27.642299999999999</v>
+      </c>
+      <c r="H34">
+        <v>28.333300000000001</v>
+      </c>
+      <c r="I34">
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C35">
+        <v>17.076000000000001</v>
+      </c>
+      <c r="D35">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
         <v>31.1111</v>
       </c>
-      <c r="C35">
+      <c r="H35">
         <v>21.403500000000001</v>
       </c>
-      <c r="D35">
+      <c r="I35">
         <v>45.185200000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="G26:I26"/>
+  <mergeCells count="34">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="A1:D1"/>
@@ -1300,16 +1354,14 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="G32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76072217-B222-47B5-8FD5-3352C7BDAA78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5873" xr2:uid="{D422B5F2-BC56-4908-8A15-AEBACB4A8502}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
   <si>
     <t>Train</t>
   </si>
@@ -97,12 +91,18 @@
   </si>
   <si>
     <t>Avg MFCC (12 coeff) + Avg Delta + 500 knn</t>
+  </si>
+  <si>
+    <t>Avg MFCC (13 coeff) + Delta + GMM [1] + 65 knn</t>
+  </si>
+  <si>
+    <t>Avg MFCC (13 coeff) + Delta + Delta Delta + GMM (1) + 100 knn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,10 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,31 +446,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17FEF67-01CB-4BD3-814E-AE2036E8F85F}">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -487,7 +490,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,7 +507,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -580,7 +583,7 @@
         <v>47.467199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -618,7 +621,7 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,7 +641,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -693,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -731,7 +734,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -769,7 +772,7 @@
         <v>46.341500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -789,7 +792,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,7 +809,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -844,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -882,7 +885,7 @@
         <v>49.468400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -920,7 +923,7 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -940,7 +943,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,7 +960,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -995,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>49.629600000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1094,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>45.185200000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1239,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1251,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1326,18 +1329,124 @@
         <v>45.185200000000002</v>
       </c>
     </row>
+    <row r="37" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>22.222000000000001</v>
+      </c>
+      <c r="C40">
+        <v>29.649000000000001</v>
+      </c>
+      <c r="D40">
+        <v>37.777000000000001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>15.55</v>
+      </c>
+      <c r="H40">
+        <v>29.41</v>
+      </c>
+      <c r="I40">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>46.654000000000003</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H41">
+        <v>23.33</v>
+      </c>
+      <c r="I41">
+        <v>47.65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="38">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="A1:D1"/>
@@ -1354,14 +1463,16 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="L20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D0CDC-1A2B-4895-879C-DB4CE4E7BD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5873" xr2:uid="{D422B5F2-BC56-4908-8A15-AEBACB4A8502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feature Finalization Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Run Time" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="37">
   <si>
     <t>Train</t>
   </si>
@@ -42,42 +50,6 @@
     <t>EER</t>
   </si>
   <si>
-    <t>Avg F0 + Avg MFCC (12 coeff)</t>
-  </si>
-  <si>
-    <t>Avg F0 + Avg MFCC (20 coeff)</t>
-  </si>
-  <si>
-    <t>Avg F0 + Avg MFCC (12 coeff) + Avg Delta MFCC</t>
-  </si>
-  <si>
-    <t>Avg F0 + Avg MFCC (20 coeff) + Avg Delta MFCC</t>
-  </si>
-  <si>
-    <t>Avg F0 + Avg MFCC (12 coeff) + Avg Delta MFCC + Avg Delta Delta MFCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg MFCC (12 coeff) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg MFCC (20 coeff) </t>
-  </si>
-  <si>
-    <t>Avg MFCC (12 coeff) + Avg Delta</t>
-  </si>
-  <si>
-    <t>Avg MFCC (12 coeff) + Avg Delta + Avg Delta Delta</t>
-  </si>
-  <si>
-    <t>Baseline Avg F0</t>
-  </si>
-  <si>
-    <t>Avg MFCC (20 coeff) + Avg Delta</t>
-  </si>
-  <si>
-    <t>Avg MFCC (20 coeff) + Avg Delta + Avg Delta Delta</t>
-  </si>
-  <si>
     <t>Avg MFCC (12 coeff) + Avg Delta + 7500 knn</t>
   </si>
   <si>
@@ -93,18 +65,104 @@
     <t>Avg MFCC (12 coeff) + Avg Delta + 500 knn</t>
   </si>
   <si>
+    <t>PreEmph + Avg MFCC (12 coeff) + Avg Delta</t>
+  </si>
+  <si>
+    <t>Baseline Avg F0; knn=15000</t>
+  </si>
+  <si>
+    <t>Avg F0 + Avg MFCC (12 coeff); knn=15000</t>
+  </si>
+  <si>
+    <t>Avg F0 + Avg MFCC (20 coeff); knn=15000</t>
+  </si>
+  <si>
+    <t>Avg F0 + Avg MFCC (12 coeff) + 
+Avg Delta MFCC; knn=15000</t>
+  </si>
+  <si>
+    <t>Avg F0 + Avg MFCC (20 coeff) + 
+Avg Delta MFCC; knn=15000</t>
+  </si>
+  <si>
+    <t>Avg F0 + Avg MFCC (12 coeff) + Avg Delta MFCC + 
+Avg Delta Delta MFCC; knn=15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg MFCC (12 coeff); knn=15000 </t>
+  </si>
+  <si>
+    <t>Avg MFCC (20 coeff); knn=15000</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta; knn=15000</t>
+  </si>
+  <si>
+    <t>Avg MFCC (12 coeff) + Avg Delta + 
+Avg Delta Delta; knn=15000</t>
+  </si>
+  <si>
+    <t>Avg MFCC (20 coeff) + Avg Delta; knn=15000</t>
+  </si>
+  <si>
+    <t>Avg MFCC (20 coeff) + Avg Delta + Avg Delta Delta
+knn=15000</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff); knn=15000</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) + Std Dev 
++ Normalizing Features; knn=15000</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) + Std Dev;
+ knn=15000</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev;
+ knn=optimized (68, seuclid)</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev;
+ knn=75, seuclid)</t>
+  </si>
+  <si>
+    <t>Baseline (Seconds)</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Mins</t>
+  </si>
+  <si>
+    <t>Our KNN Implementation (Seconds)</t>
+  </si>
+  <si>
+    <t>Avg MFCC (13 coeff) + Delta + Delta Delta + GMM (1) + 100 knn</t>
+  </si>
+  <si>
     <t>Avg MFCC (13 coeff) + Delta + GMM [1] + 65 knn</t>
-  </si>
-  <si>
-    <t>Avg MFCC (13 coeff) + Delta + Delta Delta + GMM (1) + 100 knn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,13 +190,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,51 +514,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17FEF67-01CB-4BD3-814E-AE2036E8F85F}">
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,7 +576,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -545,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -583,7 +652,7 @@
         <v>47.467199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -621,27 +690,27 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+    <row r="7" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>11</v>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,7 +727,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -696,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -734,7 +803,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -772,27 +841,27 @@
         <v>46.341500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,7 +878,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -847,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -885,7 +954,7 @@
         <v>49.468400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -923,27 +992,27 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
+    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,7 +1029,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1105,7 @@
         <v>49.629600000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1074,27 +1143,27 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1180,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1256,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1225,21 +1294,27 @@
         <v>45.185200000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,8 +1325,13 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="L32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1276,8 +1356,20 @@
       <c r="I33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1302,8 +1394,20 @@
       <c r="I34">
         <v>41.481499999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="M34">
+        <v>22.046800000000001</v>
+      </c>
+      <c r="N34">
+        <v>46.716700000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1328,22 +1432,40 @@
       <c r="I35">
         <v>45.185200000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="K35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>31.1111</v>
+      </c>
+      <c r="M35">
+        <v>22.631599999999999</v>
+      </c>
+      <c r="N35">
+        <v>46.5916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1354,8 +1476,13 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1380,65 +1507,328 @@
       <c r="I39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40">
+        <v>31.1111</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>48.8889</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>27.967500000000001</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>43.152000000000001</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>43.4146</v>
+      </c>
+      <c r="M40">
+        <v>37.368400000000001</v>
+      </c>
+      <c r="N40">
+        <v>57.848700000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>40.162599999999998</v>
+      </c>
+      <c r="C41">
+        <v>22.923999999999999</v>
+      </c>
+      <c r="D41">
+        <v>46.666699999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>31.1111</v>
+      </c>
+      <c r="H41">
+        <v>18.947399999999998</v>
+      </c>
+      <c r="I41">
+        <v>42.963000000000001</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>49.268300000000004</v>
+      </c>
+      <c r="M41">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="N41">
+        <v>52.592599999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>27.967500000000001</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>43.152000000000001</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="H46">
+        <v>20.4678</v>
+      </c>
+      <c r="I46">
+        <v>36.960599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>31.1111</v>
+      </c>
+      <c r="C47">
+        <v>18.947399999999998</v>
+      </c>
+      <c r="D47">
+        <v>42.963000000000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>28.8889</v>
+      </c>
+      <c r="H47">
+        <v>10.6433</v>
+      </c>
+      <c r="I47">
+        <v>42.222200000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5">
         <v>22.222000000000001</v>
       </c>
-      <c r="C40">
+      <c r="C52" s="5">
         <v>29.649000000000001</v>
       </c>
-      <c r="D40">
+      <c r="D52" s="5">
         <v>37.777000000000001</v>
       </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40">
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5">
         <v>15.55</v>
       </c>
-      <c r="H40">
+      <c r="H52" s="5">
         <v>29.41</v>
       </c>
-      <c r="I40">
+      <c r="I52" s="5">
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5">
         <v>33.332999999999998</v>
       </c>
-      <c r="C41">
+      <c r="C53" s="5">
         <v>25</v>
       </c>
-      <c r="D41">
+      <c r="D53" s="5">
         <v>46.654000000000003</v>
       </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5">
         <v>34.299999999999997</v>
       </c>
-      <c r="H41">
+      <c r="H53" s="5">
         <v>23.33</v>
       </c>
-      <c r="I41">
+      <c r="I53" s="5">
         <v>47.65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="50">
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:N32"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="L38:N38"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="A25:D25"/>
@@ -1475,5 +1865,517 @@
     <mergeCell ref="L20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7AED29-043E-411F-B4C1-99609A92BAD7}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>33.739800000000002</v>
+      </c>
+      <c r="C4">
+        <v>51.344999999999999</v>
+      </c>
+      <c r="D4">
+        <v>47.029400000000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>30.812999999999999</v>
+      </c>
+      <c r="H4">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="I4">
+        <v>49.629600000000003</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>28.888999999999999</v>
+      </c>
+      <c r="M4">
+        <v>26.725100000000001</v>
+      </c>
+      <c r="N4">
+        <v>47.467199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>36.747999999999998</v>
+      </c>
+      <c r="C5">
+        <v>51.666699999999999</v>
+      </c>
+      <c r="D5">
+        <v>47.407400000000003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>47.407400000000003</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>38.455300000000001</v>
+      </c>
+      <c r="M5">
+        <v>21.667000000000002</v>
+      </c>
+      <c r="N5">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>49.629600000000003</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>30.894300000000001</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>31.1111</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>48.8889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>25.906400000000001</v>
+      </c>
+      <c r="D11">
+        <v>46.716700000000003</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>37.0732</v>
+      </c>
+      <c r="H11">
+        <v>21.812899999999999</v>
+      </c>
+      <c r="I11">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>40.162599999999998</v>
+      </c>
+      <c r="M11">
+        <v>22.923999999999999</v>
+      </c>
+      <c r="N11">
+        <v>46.666699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>27.967500000000001</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>43.152000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>31.1111</v>
+      </c>
+      <c r="C17">
+        <v>18.947399999999998</v>
+      </c>
+      <c r="D17">
+        <v>42.963000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC1C4E-69B5-48A0-BDC4-9D3B2F3ADBE8}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1594.175495</v>
+      </c>
+      <c r="C2">
+        <v>31.359092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1508.0906230000001</v>
+      </c>
+      <c r="C3">
+        <v>31.249317999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1526.9586919999999</v>
+      </c>
+      <c r="C4">
+        <v>29.201128000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1468.2879230000001</v>
+      </c>
+      <c r="C5">
+        <v>29.730877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1483.6252039999999</v>
+      </c>
+      <c r="C6">
+        <v>29.700892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>1516.2275873999999</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>30.248261400000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <f>B8/60</f>
+        <v>25.27045979</v>
+      </c>
+      <c r="C9">
+        <f>C8/60</f>
+        <v>0.50413768999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwzamani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9B0AA-BE94-4FCA-8731-CC7672061B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5873" activeTab="1" xr2:uid="{D422B5F2-BC56-4908-8A15-AEBACB4A8502}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="12210" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Finalization Data" sheetId="3" r:id="rId1"/>
     <sheet name="Run Time" sheetId="2" r:id="rId2"/>
     <sheet name="EER_BASELINE_FINAL" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="All DATA RAW" sheetId="1" r:id="rId4"/>
+    <sheet name="Data with comments" sheetId="5" r:id="rId5"/>
+    <sheet name="KNN - Number Neighbor Experimen" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +28,380 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zamani, Hamza W</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This shows that adding MFCC to F0 help</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zamani, Hamza W</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This can be put in the report to show that adding MFCC improved the baseline.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zamani, Hamza W</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This can be put in the report to show that adding MFCC improved the baseline.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This can show that the computation time for F0 was not worth it for us to keep.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This shows that having 20 coefficients in the beginning was useful.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Some improvement with Avg Delta
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Better to keep it at 12 coeff + avg delta at this point</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Made things worse than having Avg Delta only.
+ At this point I decided to experiment with KNN number of neighbors (See next sheet).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+At this point it was decided to add a pre-emphasis filter to the mix.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Produced better results on read-read and I thought having a better read-read was more important than the improvements on the other figures.  This will have to be revisited at the end to see if adding Avg Deltas helps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Added the standard deviation to improve results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Normalizing the feature vector did NOT improve things</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Adding the avg delta back in the mix to our final feature vector + its std dev.  This is with the updated data set.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zamani, Hamza W:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Adding the avg delta back in. Only taking std dev of MFCCs. 
+This is with the updated data set.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="48">
   <si>
     <t>Train</t>
   </si>
@@ -168,13 +541,30 @@
   <si>
     <t>Updated PreEmph + Avg MFCC (12 coeff) +  Std Dev;
  knn=75, seuclid)</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) + Avd delta + Std Dev of MFCC &amp; Delta
+knn=75 (seuclid)</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) + Avd delta + Std Dev of MFCC Only
+knn=75 (seuclid)</t>
+  </si>
+  <si>
+    <t>Better than with avg delta instead of std dev</t>
+  </si>
+  <si>
+    <t>This was just the initial experimentaiton phase before finalizing the feature vector.</t>
+  </si>
+  <si>
+    <t>After finalizing the feature vector I used the knn command with argument ,'OptimizeHyperparameters','auto', to optimize the number of neighbors and distance over several iterations (didn't keep data for this)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +579,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,10 +627,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,25 +945,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7AED29-043E-411F-B4C1-99609A92BAD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -580,7 +983,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -597,7 +1000,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -673,7 +1076,7 @@
         <v>47.467199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -711,7 +1114,7 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -731,7 +1134,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -748,7 +1151,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -786,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -824,7 +1227,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -862,7 +1265,7 @@
         <v>46.666699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -870,14 +1273,14 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -891,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -905,7 +1308,7 @@
         <v>43.152000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -921,6 +1324,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="A1:D1"/>
@@ -929,35 +1338,30 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC1C4E-69B5-48A0-BDC4-9D3B2F3ADBE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -974,7 +1378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -991,7 +1395,7 @@
         <v>32.760424</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1008,7 +1412,7 @@
         <v>23.779885</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1025,7 +1429,7 @@
         <v>32.408206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1042,7 +1446,7 @@
         <v>31.975577999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1059,7 +1463,7 @@
         <v>30.733986999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1080,7 +1484,7 @@
         <v>30.331615999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1107,33 +1511,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C30BCE-765E-42C2-9C88-149F380C9068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F7" sqref="F7:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1147,7 +1551,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1603,7 @@
         <v>36.960599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1225,21 +1629,21 @@
         <v>42.222200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1253,7 +1657,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1305,7 +1709,7 @@
         <v>36.210099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1333,14 +1737,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1348,25 +1752,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17FEF67-01CB-4BD3-814E-AE2036E8F85F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1790,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1807,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1883,7 @@
         <v>47.467199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +1921,7 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1537,7 +1941,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1958,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1630,7 +2034,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +2072,7 @@
         <v>46.341500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1688,7 +2092,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +2109,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +2185,7 @@
         <v>49.468400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +2223,7 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +2243,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +2260,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +2336,7 @@
         <v>49.629600000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1970,7 +2374,7 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1990,7 +2394,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2411,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2487,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2525,7 @@
         <v>45.185200000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +2545,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2562,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2638,7 @@
         <v>46.716700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2676,7 @@
         <v>46.5916</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2696,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2713,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2385,7 +2789,7 @@
         <v>57.848700000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2423,19 +2827,19 @@
         <v>52.592599999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="K43" s="3" t="s">
         <v>37</v>
       </c>
@@ -2443,7 +2847,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2865,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2941,7 @@
         <v>37.777799999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2979,7 @@
         <v>37.777799999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>35</v>
       </c>
@@ -2589,14 +2993,14 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>6</v>
@@ -2617,7 +3021,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +3099,7 @@
         <v>36.210099999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2736,49 +3140,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="L38:N38"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:I32"/>
@@ -2790,8 +3151,1169 @@
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="A49:D49"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="L38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30.812999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>49.629600000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>49.629600000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25.906400000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>46.716700000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30.894300000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>37.0732</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21.812899999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>49.468400000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>32.601599999999998</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22.2807</v>
+      </c>
+      <c r="D23" s="2">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>49.843699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20.8187</v>
+      </c>
+      <c r="D29" s="2">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>48.6554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>46.779200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="C40" s="2">
+        <v>22.046800000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>46.716700000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>31.1111</v>
+      </c>
+      <c r="C41" s="2">
+        <v>22.631599999999999</v>
+      </c>
+      <c r="D41" s="2">
+        <v>46.5916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>31.1111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2">
+        <v>48.8889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>40.162599999999998</v>
+      </c>
+      <c r="C47" s="2">
+        <v>22.923999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>46.666699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>27.967500000000001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43.152000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>31.1111</v>
+      </c>
+      <c r="C53" s="2">
+        <v>18.947399999999998</v>
+      </c>
+      <c r="D53" s="2">
+        <v>42.963000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43.4146</v>
+      </c>
+      <c r="C58" s="2">
+        <v>37.368400000000001</v>
+      </c>
+      <c r="D58" s="2">
+        <v>57.848700000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>49.268300000000004</v>
+      </c>
+      <c r="C59" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>52.592599999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="G61" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>24.443999999999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>27.368400000000001</v>
+      </c>
+      <c r="D64" s="2">
+        <v>37.777999999999999</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="2">
+        <v>24.552800000000001</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" s="2">
+        <v>36.210099999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="C65" s="2">
+        <v>18.332999999999998</v>
+      </c>
+      <c r="D65" s="2">
+        <v>41.481499999999997</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>28.455300000000001</v>
+      </c>
+      <c r="I65" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" s="2">
+        <v>38.518500000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>29.105699999999999</v>
+      </c>
+      <c r="C70" s="2">
+        <v>28.332999999999998</v>
+      </c>
+      <c r="D70" s="2">
+        <v>36.085099999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>28.888999999999999</v>
+      </c>
+      <c r="C71" s="2">
+        <v>17.8947</v>
+      </c>
+      <c r="D71" s="2">
+        <v>39.962499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>33.577199999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24.093599999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>34.146299999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24.2105</v>
+      </c>
+      <c r="D5" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11.4634</v>
+      </c>
+      <c r="C10" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35.647300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>33.008099999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.1637</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45.028100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31.4634</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41.481499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>32.195099999999996</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45.185200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>17.398399999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28.333300000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>35.555599999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>17.076000000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27.642299999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>28.333300000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>41.481499999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>31.1111</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21.403500000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45.185200000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwzamani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878AC89-EDCA-42B7-B461-928AF0CFD3A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="12210" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="12210" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Finalization Data" sheetId="3" r:id="rId1"/>
@@ -18,8 +19,9 @@
     <sheet name="All DATA RAW" sheetId="1" r:id="rId4"/>
     <sheet name="Data with comments" sheetId="5" r:id="rId5"/>
     <sheet name="KNN - Number Neighbor Experimen" sheetId="6" r:id="rId6"/>
+    <sheet name="KNN - Neighbor graph" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Zamani, Hamza W</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +65,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Zamani, Hamza W</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -98,12 +100,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Zamani, Hamza W</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0" shapeId="0">
+    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0">
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0" shapeId="0">
+    <comment ref="A67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="55">
   <si>
     <t>Train</t>
   </si>
@@ -559,11 +561,32 @@
   <si>
     <t>After finalizing the feature vector I used the knn command with argument ,'OptimizeHyperparameters','auto', to optimize the number of neighbors and distance over several iterations (didn't keep data for this)</t>
   </si>
+  <si>
+    <t>Number of Neighbors</t>
+  </si>
+  <si>
+    <t>Read-Read EER</t>
+  </si>
+  <si>
+    <t>Read-Phone EER</t>
+  </si>
+  <si>
+    <t>Read-Mismath EER</t>
+  </si>
+  <si>
+    <t>Phone-Read EER</t>
+  </si>
+  <si>
+    <t>Phone-Phone ERR</t>
+  </si>
+  <si>
+    <t>Phone-Mismatch EER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,16 +644,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,6 +670,1563 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KNN Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Neighbor Experimentation With Preliminary Feature Vector</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KNN - Neighbor graph'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read-Read EER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.4634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.398399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.642299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.4634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.577199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.333300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E040-4E8D-9309-832841B9FEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KNN - Neighbor graph'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read-Phone EER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.093599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E040-4E8D-9309-832841B9FEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KNN - Neighbor graph'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read-Mismath EER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.647300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.555599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.481499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.481499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.148099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.468400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E040-4E8D-9309-832841B9FEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KNN - Neighbor graph'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone-Read EER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.008099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.1111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.195099999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.146299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.601599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E040-4E8D-9309-832841B9FEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KNN - Neighbor graph'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone-Phone ERR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.1637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.403500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.2105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.2807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E040-4E8D-9309-832841B9FEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KNN - Neighbor graph'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone-Mismatch EER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KNN - Neighbor graph'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45.028100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.148099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.185200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.185200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.148099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.407400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E040-4E8D-9309-832841B9FEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485959768"/>
+        <c:axId val="485956488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485959768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Neighbors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485956488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>EER %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485959768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>859630</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A002D99A-8489-4234-912E-31EB8EA238A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,62 +2525,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +2618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +2656,7 @@
         <v>47.467199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1114,44 +2694,44 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +2807,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1265,22 +2845,22 @@
         <v>46.666699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +2888,7 @@
         <v>43.152000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1324,12 +2904,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="A1:D1"/>
@@ -1338,6 +2912,12 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1345,23 +2925,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1378,7 +2958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1395,7 +2975,7 @@
         <v>32.760424</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1412,7 +2992,7 @@
         <v>23.779885</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1429,7 +3009,7 @@
         <v>32.408206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1446,7 +3026,7 @@
         <v>31.975577999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1463,7 +3043,7 @@
         <v>30.733986999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +3064,7 @@
         <v>30.331615999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1511,47 +3091,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +3157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +3183,7 @@
         <v>36.960599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1629,35 +3209,35 @@
         <v>42.222200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +3263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +3289,7 @@
         <v>36.210099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1752,62 +3332,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:N41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N17" sqref="K13:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +3463,7 @@
         <v>47.467199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1921,44 +3501,44 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="4" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +3614,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2072,44 +3652,44 @@
         <v>46.341500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +3765,7 @@
         <v>49.468400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2223,44 +3803,44 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="4" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="L20" s="3" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="L20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +3916,7 @@
         <v>49.629600000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2374,44 +3954,44 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="K25" s="3" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="K25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="L26" s="3" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="L26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +4067,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2525,44 +4105,44 @@
         <v>45.185200000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="K31" s="3" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="K31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="G32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="L32" s="3" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="L32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +4218,7 @@
         <v>46.716700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2676,44 +4256,44 @@
         <v>46.5916</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="4" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="K37" s="4" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="K37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="L38" s="3" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="L38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2789,7 +4369,7 @@
         <v>57.848700000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2827,45 +4407,45 @@
         <v>52.592599999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="6" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="K43" s="3" t="s">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="K43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +4483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +4521,7 @@
         <v>37.777799999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2979,49 +4559,49 @@
         <v>37.777799999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="K49" s="6" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="K49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +4640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +4679,7 @@
         <v>36.210099999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3140,44 +4720,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K13:N13"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="L44:N44"/>
     <mergeCell ref="K49:N49"/>
@@ -3194,6 +4736,44 @@
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="L38:N38"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3202,32 +4782,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +4821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3255,7 +4835,7 @@
         <v>49.629600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3269,23 +4849,23 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3313,7 +4893,7 @@
         <v>49.629600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3327,23 +4907,23 @@
         <v>46.716700000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3371,7 +4951,7 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3385,23 +4965,23 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3429,7 +5009,7 @@
         <v>49.468400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3443,23 +5023,23 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +5053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3487,7 +5067,7 @@
         <v>49.843699999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3501,23 +5081,23 @@
         <v>47.407400000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +5111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -3545,7 +5125,7 @@
         <v>48.6554</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3559,23 +5139,23 @@
         <v>46.779200000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -3603,7 +5183,7 @@
         <v>46.716700000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -3617,23 +5197,23 @@
         <v>46.5916</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +5227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +5241,7 @@
         <v>48.8889</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3675,26 +5255,26 @@
         <v>46.666699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="F49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +5288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +5302,7 @@
         <v>43.152000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3736,23 +5316,23 @@
         <v>42.963000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +5346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -3780,7 +5360,7 @@
         <v>57.848700000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -3794,35 +5374,35 @@
         <v>52.592599999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="G61" s="6" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="G61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -3874,7 +5454,7 @@
         <v>36.210099999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -3900,23 +5480,23 @@
         <v>38.518500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +5510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -3944,7 +5524,7 @@
         <v>36.085099999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -3960,12 +5540,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="G61:J61"/>
     <mergeCell ref="H62:J62"/>
     <mergeCell ref="A37:D37"/>
@@ -3974,18 +5560,12 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3993,38 +5573,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="G2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +5621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4055,7 +5635,7 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4069,23 +5649,23 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +5679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -4113,7 +5693,7 @@
         <v>35.647300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -4127,23 +5707,23 @@
         <v>45.028100000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -4157,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -4171,7 +5751,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4185,23 +5765,23 @@
         <v>45.185200000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -4229,7 +5809,7 @@
         <v>35.555599999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -4243,23 +5823,23 @@
         <v>48.148099999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -4273,7 +5853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +5867,7 @@
         <v>41.481499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4301,8 +5881,68 @@
         <v>45.185200000000002</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>49.468400000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>32.601599999999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>22.2807</v>
+      </c>
+      <c r="D35" s="2">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A25:D25"/>
@@ -4316,4 +5956,190 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EF65E9-DE50-4605-B6FF-23D2345A6523}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11.4634</v>
+      </c>
+      <c r="C2" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35.647300000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>33.008099999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12.1637</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45.028100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>17.398399999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28.333300000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35.555599999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17.076000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27.642299999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28.333300000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41.481499999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31.1111</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21.403500000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45.185200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31.4634</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41.481499999999997</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32.195099999999996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45.185200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>7500</v>
+      </c>
+      <c r="B6" s="2">
+        <v>33.577199999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24.093599999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>48.148099999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>34.146299999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24.2105</v>
+      </c>
+      <c r="G6" s="2">
+        <v>48.148099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>15000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>49.468400000000003</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32.601599999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22.2807</v>
+      </c>
+      <c r="G7" s="2">
+        <v>47.407400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza Zamani\Google Drive (hwzamani@g.ucla.edu)\UCLA\Classes\Winter2019_ECE214A\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878AC89-EDCA-42B7-B461-928AF0CFD3A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF88FFF-9C4F-4751-8514-636CA8B61EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="12210" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="12210" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Finalization Data" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Data with comments" sheetId="5" r:id="rId5"/>
     <sheet name="KNN - Number Neighbor Experimen" sheetId="6" r:id="rId6"/>
     <sheet name="KNN - Neighbor graph" sheetId="7" r:id="rId7"/>
+    <sheet name="LPC Data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -403,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="72">
   <si>
     <t>Train</t>
   </si>
@@ -581,13 +582,70 @@
   </si>
   <si>
     <t>Phone-Mismatch EER</t>
+  </si>
+  <si>
+    <t>OLD DATA RESULTS</t>
+  </si>
+  <si>
+    <t>New DATA RESULTS</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev;
+ knn=75, seuclid</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Our final feature vector results with optimized knn</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev + Avg 13 ak's;
+ knn=75, seuclid</t>
+  </si>
+  <si>
+    <t>Added 13 ak's from LPC extraction - taking the mean columnwise for each ak</t>
+  </si>
+  <si>
+    <t>Weird that same results… I got warnings messages from the knn</t>
+  </si>
+  <si>
+    <t>Not going to attempt std since it adding avg ak's made it worse</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev + Avg F1;
+ knn=75, seuclid</t>
+  </si>
+  <si>
+    <t>Used LPC ak's to calculate formants for each frame; only if the frame had 3 formants above 350Hz and less than 4500Hz it was used (trying to isolate vowels).</t>
+  </si>
+  <si>
+    <t>Reference for calculating formants: https://www.mathworks.com/help/signal/ug/formant-estimation-with-lpc-coefficients.html</t>
+  </si>
+  <si>
+    <t>Already Reported</t>
+  </si>
+  <si>
+    <t>Avg Runtime (Seconds)</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev MFCC  + Avg F1 + Avg F2;
+ knn=75, seuclid</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev MFCC  + Avg F1 + Avg F2 + Avg F3;
+ knn=75, seuclid</t>
+  </si>
+  <si>
+    <t>PreEmph + Avg MFCC (12 coeff) +  Std Dev MFCC  + Avg F1 + Avg F2 + Avg F3 + Std Dev F1 + Std Dev F2 + Std Dev F3;
+ knn=75, seuclid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +674,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -637,22 +703,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2544,41 +2619,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -2695,41 +2770,41 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -2846,19 +2921,19 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -2904,6 +2979,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="A1:D1"/>
@@ -2912,12 +2993,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3119,17 +3194,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -3225,17 +3300,17 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -3335,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N17" sqref="K13:N17"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3351,41 +3426,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -3502,41 +3577,41 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="K7" s="3" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -3653,41 +3728,41 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -3804,41 +3879,41 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="3" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="L20" s="4" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="L20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -3955,41 +4030,41 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="K25" s="4" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="G26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="L26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -4106,41 +4181,41 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="K31" s="4" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="G32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="L32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -4257,41 +4332,41 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="F37" s="3" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="K37" s="3" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="K37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="G38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="G38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="L38" s="4" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="L38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
@@ -4408,42 +4483,42 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="F43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="G44" s="4" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="G44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
@@ -4560,19 +4635,19 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="K49" s="5" t="s">
         <v>42</v>
       </c>
@@ -4582,24 +4657,24 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
@@ -4720,6 +4795,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="L44:N44"/>
     <mergeCell ref="K49:N49"/>
@@ -4736,44 +4849,6 @@
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="L38:N38"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4792,20 +4867,20 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -4850,20 +4925,20 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -4908,20 +4983,20 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
@@ -4966,20 +5041,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
@@ -5024,20 +5099,20 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
@@ -5082,20 +5157,20 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
@@ -5140,20 +5215,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
@@ -5198,20 +5273,20 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
@@ -5256,23 +5331,23 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
       <c r="F49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
@@ -5317,20 +5392,20 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
@@ -5375,12 +5450,12 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="G61" s="5" t="s">
         <v>42</v>
       </c>
@@ -5390,17 +5465,17 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
@@ -5481,20 +5556,20 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
@@ -5540,6 +5615,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -5552,20 +5641,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5577,7 +5652,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+      <selection activeCell="A31" sqref="A31:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5586,20 +5661,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="G2" t="s">
         <v>46</v>
       </c>
@@ -5650,20 +5725,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -5708,20 +5783,20 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
@@ -5766,20 +5841,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
@@ -5824,20 +5899,20 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
@@ -5882,20 +5957,20 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
@@ -5941,18 +6016,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5962,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EF65E9-DE50-4605-B6FF-23D2345A6523}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -6142,4 +6217,779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF8318-3C31-44B3-B62F-4CE034471BA4}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.65">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20.4678</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36.960599999999999</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>24.552800000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>36.210099999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28.8889</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.6433</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42.222200000000001</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28.455300000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>38.518500000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9">
+        <f>AVERAGE(66.635862,65.361989,64.612225)</f>
+        <v>65.536692000000002</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9">
+        <f>AVERAGE(39.338775,39.3434,38.785728)</f>
+        <v>39.155967666666669</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43.4146</v>
+      </c>
+      <c r="C12" s="2">
+        <v>38.947400000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>37.777999999999999</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43.4146</v>
+      </c>
+      <c r="I12" s="2">
+        <v>38.947400000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>37.777999999999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43.4146</v>
+      </c>
+      <c r="C13" s="2">
+        <v>38.947400000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>37.777999999999999</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43.4146</v>
+      </c>
+      <c r="I13" s="2">
+        <v>38.947400000000002</v>
+      </c>
+      <c r="J13" s="2">
+        <v>37.777999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15">
+        <f>AVERAGE(77.213804, 75.343061,77.046292)</f>
+        <v>76.534385666666665</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15">
+        <f>AVERAGE(50.269717,42.363548,44.828264)</f>
+        <v>45.820509666666659</v>
+      </c>
+      <c r="L15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.6666999999999996</v>
+      </c>
+      <c r="C18" s="2">
+        <v>21.344999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>36.835500000000003</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>26.260200000000001</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2">
+        <v>36.2727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>28.211400000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10.526300000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43.703699999999998</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>23.333300000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>39.837400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21">
+        <f>AVERAGE(74.841325,75.499088,74.787099)</f>
+        <v>75.042504000000008</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21">
+        <f>AVERAGE(50.409546,48.939164,49.296104)</f>
+        <v>49.548271333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.6666999999999996</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21.111000000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>36.835500000000003</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>27.235800000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>21.666699999999999</v>
+      </c>
+      <c r="J24" s="2">
+        <v>35.555599999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>28.2927</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9.9414999999999996</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43.277000000000001</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>21.666699999999999</v>
+      </c>
+      <c r="J25" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27">
+        <f>AVERAGE(75.101462,74.495033, 75.772632)</f>
+        <v>75.123042333333331</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27">
+        <f>AVERAGE(50.436588,50.471244,49.912512)</f>
+        <v>50.273448000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>36.835500000000003</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>28.373999999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>21.666699999999999</v>
+      </c>
+      <c r="J30" s="2">
+        <v>36.022500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43.214500000000001</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>23.333300000000001</v>
+      </c>
+      <c r="J31" s="2">
+        <v>40.087600000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33">
+        <f>AVERAGE(75.822036,75.994261,76.76542)</f>
+        <v>76.193905666666666</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33">
+        <f>AVERAGE(49.897507,49.556983,50.117417)</f>
+        <v>49.857302333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8.8888999999999996</v>
+      </c>
+      <c r="C36" s="2">
+        <v>21.666699999999999</v>
+      </c>
+      <c r="D36" s="2">
+        <v>36.296300000000002</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>21.666699999999999</v>
+      </c>
+      <c r="J36" s="2">
+        <v>34.814799999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>25.6098</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11.1111</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43.026899999999998</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>21.666699999999999</v>
+      </c>
+      <c r="J37" s="2">
+        <v>39.0244</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>